--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41640.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
         <v>6.4</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="R2" s="4" t="n">
+      <c r="U2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="W2" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41640.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.76</v>
+        <v>10.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.36</v>
+        <v>2.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41640.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>34.86</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>29.16</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>47.66</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>3.94</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.01</v>
+        <v>18.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.7</v>
+        <v>3.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.81</v>
+        <v>2.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41640.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.71</v>
+        <v>3.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.59</v>
+        <v>3.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.36</v>
+        <v>5.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>196.24</v>
+        <v>19.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.44</v>
+        <v>3.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.54</v>
+        <v>2.55</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.43</v>
+        <v>4.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41640.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>42.87</v>
+        <v>4.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>35.64</v>
+        <v>3.56</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>60.75</v>
+        <v>6.07</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>229.46</v>
+        <v>22.95</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>43.53</v>
+        <v>4.35</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>29.61</v>
+        <v>2.96</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>55.02</v>
+        <v>5.5</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41640.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>47.75</v>
+        <v>4.77</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>39.63</v>
+        <v>3.96</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>67.77</v>
+        <v>6.78</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.84</v>
+        <v>2.68</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>255.82</v>
+        <v>25.58</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>48.37</v>
+        <v>4.84</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.61</v>
+        <v>3.26</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.99</v>
+        <v>3.3</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>61.42</v>
+        <v>6.14</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41640.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>35.33</v>
+        <v>3.53</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y8" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>115.06</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.06</v>
-      </c>
       <c r="Z8" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41640.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>29.49</v>
+        <v>2.95</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>102.46</v>
+        <v>10.25</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>26.66</v>
+        <v>2.67</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10">
@@ -1487,10 +1487,10 @@
         <v>41640.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
@@ -1526,64 +1526,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC10" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y10" s="4" t="n">
+      <c r="AD10" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41640.34027777778</v>
+        <v>44889.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1.17</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41640.34722222222</v>
+        <v>44889.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.7</v>
+        <v>0.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.61</v>
+        <v>1.67</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.34</v>
+        <v>1.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41640.35416666666</v>
+        <v>44889.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.49</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.92</v>
+        <v>1.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.77</v>
+        <v>3.27</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.37</v>
+        <v>0.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>1.05</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>1.04</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41640.36111111111</v>
+        <v>44889.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.67</v>
+        <v>4.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.06</v>
+        <v>3.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.24</v>
+        <v>6.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.62</v>
+        <v>23.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.74</v>
+        <v>4.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.51</v>
+        <v>3.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.74</v>
+        <v>5.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41640.36805555555</v>
+        <v>44889.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.95</v>
+        <v>20.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.5</v>
+        <v>15.34</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.29</v>
+        <v>44.94</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.56</v>
+        <v>36.65</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.57</v>
+        <v>16.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.07</v>
+        <v>63.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.42</v>
+        <v>25.01</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.08</v>
+        <v>11.11</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.78</v>
+        <v>18.02</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.82</v>
+        <v>19.16</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.49</v>
+        <v>5.19</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.53</v>
+        <v>16.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.23</v>
+        <v>23.01</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.29</v>
+        <v>13.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.67</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.95</v>
+        <v>238.76</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.35</v>
+        <v>45.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.42</v>
+        <v>14.92</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.93</v>
+        <v>30.4</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.56</v>
+        <v>15.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>2.36</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.96</v>
+        <v>30.87</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.27</v>
+        <v>13.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.15</v>
+        <v>11.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.34</v>
+        <v>13.74</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.85</v>
+        <v>18.92</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.5</v>
+        <v>57.79</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.83</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41640.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41640.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41640.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41640.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41640.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>36.35</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>155.75</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>32.56</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.27</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44889.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44889.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.99</v>
+        <v>49.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44889.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.27</v>
+        <v>32.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>129.99</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.97</v>
+        <v>29.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44889.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.49</v>
+        <v>44.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.08</v>
+        <v>60.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.87</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.52</v>
+        <v>45.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3</v>
+        <v>30.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.53</v>
+        <v>55.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -762,97 +762,97 @@
         <v>4.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.39</v>
+        <v>10.392</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.41</v>
+        <v>7.415</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.54</v>
+        <v>3.537</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.72</v>
+        <v>16.716</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.294</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.1</v>
+        <v>4.104</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>4.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.215</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.13</v>
+        <v>5.132</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>3.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.282</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.93</v>
+        <v>49.933</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.72</v>
+        <v>10.716</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.731</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.39</v>
+        <v>3.387</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.083</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.279</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.96</v>
+        <v>2.955</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>3.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.229</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.883</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.735</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>4.34</v>
@@ -863,103 +863,103 @@
         <v>44889.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.41</v>
+        <v>11.405</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.07</v>
+        <v>25.065</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.91</v>
+        <v>19.911</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.9</v>
+        <v>8.895</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.71</v>
+        <v>32.712</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.028</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.028</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.74</v>
+        <v>10.739</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.896</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.68</v>
+        <v>12.677</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>7.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.99</v>
+        <v>129.992</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.14</v>
+        <v>25.136</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.63</v>
+        <v>16.625</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.715</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.573</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.19</v>
+        <v>16.194</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.643</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.811</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.49</v>
+        <v>10.492</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.71</v>
+        <v>29.709</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.57</v>
+        <v>4.572</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="5">
@@ -1063,110 +1063,6 @@
         <v>8.369999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44889.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.94</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>36.65</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>18.66</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,102 +967,206 @@
         <v>44889.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.55</v>
+        <v>20.553</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.28</v>
+        <v>15.282</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.236</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.93</v>
+        <v>44.933</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.53</v>
+        <v>36.529</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.12</v>
+        <v>16.116</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>60.79</v>
+        <v>60.795</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.07</v>
+        <v>11.071</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.01</v>
+        <v>18.013</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.167</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.19</v>
+        <v>5.192</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.97</v>
+        <v>22.967</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.68</v>
+        <v>13.685</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.841</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.75</v>
+        <v>238.749</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>45.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.3</v>
+        <v>30.305</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.89</v>
+        <v>15.891</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.415</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.03</v>
+        <v>30.033</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.709</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.77</v>
+        <v>13.772</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.91</v>
+        <v>18.906</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>55.34</v>
+        <v>55.338</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>18.656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44889.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>63.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>18.66</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_208.xlsx
+++ b/DATA_goal/Junction_Flooding_208.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,206 +967,102 @@
         <v>44889.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.553</v>
+        <v>20.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.282</v>
+        <v>15.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.236</v>
+        <v>1.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.933</v>
+        <v>44.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.529</v>
+        <v>36.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.116</v>
+        <v>16.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>60.795</v>
+        <v>60.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.014</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.071</v>
+        <v>11.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.334</v>
+        <v>16.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.013</v>
+        <v>18.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.167</v>
+        <v>19.17</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.192</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.166</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.967</v>
+        <v>22.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.685</v>
+        <v>13.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.749</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>45.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.922</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.305</v>
+        <v>30.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.891</v>
+        <v>15.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.415</v>
+        <v>2.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.033</v>
+        <v>30.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.181</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.709</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.772</v>
+        <v>13.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.906</v>
+        <v>18.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>55.338</v>
+        <v>55.34</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.656</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44889.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.94</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>36.65</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>18.66</v>
       </c>
     </row>
